--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.790636316434</v>
+        <v>48.394923</v>
       </c>
       <c r="H2">
-        <v>47.790636316434</v>
+        <v>145.184769</v>
       </c>
       <c r="I2">
-        <v>0.9696127526667919</v>
+        <v>0.9646625188736886</v>
       </c>
       <c r="J2">
-        <v>0.9696127526667919</v>
+        <v>0.9646625188736887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>149.3792968438453</v>
+        <v>354.344206298108</v>
       </c>
       <c r="R2">
-        <v>149.3792968438453</v>
+        <v>3189.097856682972</v>
       </c>
       <c r="S2">
-        <v>0.9696127526667919</v>
+        <v>0.9646625188736886</v>
       </c>
       <c r="T2">
-        <v>0.9696127526667919</v>
+        <v>0.9646625188736887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.83096937796902</v>
+        <v>0.9288356666666666</v>
       </c>
       <c r="H3">
-        <v>0.83096937796902</v>
+        <v>2.786507</v>
       </c>
       <c r="I3">
-        <v>0.01685933831513533</v>
+        <v>0.01851460645626791</v>
       </c>
       <c r="J3">
-        <v>0.01685933831513533</v>
+        <v>0.01851460645626791</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.597362808854141</v>
+        <v>6.800869113612888</v>
       </c>
       <c r="R3">
-        <v>2.597362808854141</v>
+        <v>61.207822022516</v>
       </c>
       <c r="S3">
-        <v>0.01685933831513533</v>
+        <v>0.01851460645626791</v>
       </c>
       <c r="T3">
-        <v>0.01685933831513533</v>
+        <v>0.01851460645626791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.666768643694494</v>
+        <v>0.8439653333333333</v>
       </c>
       <c r="H4">
-        <v>0.666768643694494</v>
+        <v>2.531896</v>
       </c>
       <c r="I4">
-        <v>0.01352790901807273</v>
+        <v>0.0168228746700435</v>
       </c>
       <c r="J4">
-        <v>0.01352790901807273</v>
+        <v>0.0168228746700435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.084120213280305</v>
+        <v>6.179454530449778</v>
       </c>
       <c r="R4">
-        <v>2.084120213280305</v>
+        <v>55.615090774048</v>
       </c>
       <c r="S4">
-        <v>0.01352790901807273</v>
+        <v>0.0168228746700435</v>
       </c>
       <c r="T4">
-        <v>0.01352790901807273</v>
+        <v>0.0168228746700435</v>
       </c>
     </row>
   </sheetData>
